--- a/govee_temps.xlsx
+++ b/govee_temps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,42 @@
         <v>1.3</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-07T23:05:37-05:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lab Fridge 1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-07T23:05:37-05:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lab Fridge 2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34.34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
